--- a/Misc Assets/Field Cage Calculator/UTAH TPC Field Cage Check.xlsx
+++ b/Misc Assets/Field Cage Calculator/UTAH TPC Field Cage Check.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baraj\OneDrive\Desktop\GitHub.Repo\UTAH-TPC-Simulation-and-Models\z.ReadMeAssets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baraj\OneDrive\Desktop\GitHub.Repo\UTAH-TPC-Simulation-and-Models\Misc Assets\Field Cage Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF79E0-773F-447A-96B2-5B50101658C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B3D7DA-879F-4C07-B9E1-1848D75DA071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{82822A08-0979-465D-B215-62529E1F6F2D}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{82822A08-0979-465D-B215-62529E1F6F2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Cage</t>
   </si>
@@ -47,9 +47,6 @@
     <t>Voltage</t>
   </si>
   <si>
-    <t>I_Total (A)</t>
-  </si>
-  <si>
     <t>I_Buffer (A)</t>
   </si>
   <si>
@@ -111,6 +108,15 @@
   </si>
   <si>
     <t>D11</t>
+  </si>
+  <si>
+    <t>I_Input (A)</t>
+  </si>
+  <si>
+    <t>V_Drift (V/m)</t>
+  </si>
+  <si>
+    <t>V_Buffer (V/m)</t>
   </si>
 </sst>
 </file>
@@ -306,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -321,6 +327,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -658,7 +665,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,10 +690,10 @@
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="10" t="s">
@@ -707,7 +714,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" s="2">
         <f>B3 -( ( C3 * 4) * C9 )</f>
@@ -719,7 +726,7 @@
       <c r="A4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3">
         <f>B3 -( ( C3 * 3) * C9 )</f>
@@ -730,14 +737,14 @@
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F5" s="3">
         <f>B3 -( ( C3 * 2) * C9 )</f>
@@ -755,7 +762,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3">
         <f>B3 -( ( C3 * 1) * C9 )</f>
@@ -767,7 +774,7 @@
       <c r="A7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3">
         <f>B3</f>
@@ -778,14 +785,14 @@
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3">
         <f>B3 -( ( C3 * 1) * B9 )</f>
@@ -805,7 +812,7 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9" s="3">
         <f>B3 -( ( C3 * 2) * B9 )</f>
@@ -817,7 +824,7 @@
       <c r="A10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10" s="3">
         <f>B3 -( ( C3 * 3) * B9 )</f>
@@ -829,11 +836,11 @@
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <f>B3 -( ( C3 * 4) * B9 )</f>
@@ -850,7 +857,7 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="3">
         <f>B3 -( ( C3 * 5) * B9 )</f>
@@ -858,13 +865,13 @@
       </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" s="3">
         <f>B3 -( ( C3 * 6) * B9 )</f>
@@ -874,11 +881,15 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F14" s="3">
         <f>B3 -( ( C3 * 7) * B9 )</f>
@@ -886,13 +897,19 @@
       </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="B15" s="14">
+        <f>F18/15 * 1000</f>
+        <v>5000</v>
+      </c>
+      <c r="C15" s="14">
+        <f>F4/15 * 1000</f>
+        <v>15000</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="3">
         <f>B3 -( ( C3 * 8) * B9 )</f>
@@ -906,7 +923,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="3">
         <f>B3 -( ( C3 * 9) * B9 )</f>
@@ -920,7 +937,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F17" s="3">
         <f>B3 -( ( C3 * 10) * B9 )</f>
@@ -934,7 +951,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
         <f>B3 -( ( C3 * 11) * B9 )</f>
